--- a/biology/Médecine/Anselme_Jourdain/Anselme_Jourdain.xlsx
+++ b/biology/Médecine/Anselme_Jourdain/Anselme_Jourdain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anselme Louis Bernard Bréchillet dit Jourdain, né le 26 décembre 1734 à Paris[1] où il est mort le 16 janvier 1816, est un chirurgien dentiste français. Il est le père de l'orientaliste Amable Jourdain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anselme Louis Bernard Bréchillet dit Jourdain, né le 26 décembre 1734 à Paris où il est mort le 16 janvier 1816, est un chirurgien dentiste français. Il est le père de l'orientaliste Amable Jourdain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jourdain compte parmi les Français qui se sont les plus distingués dans l’étude et l’exercice de la dentisterie. Il a longtemps coopéré à la rédaction du journal de médecine et n’a pas été étranger à l’Histoire de l’anatomie de Portal.
 Jourdain, qui ne s’était pas limité exclusivement dans l’étude de la dentisterie, avait cultivé avec soin toutes les parties de la médecine, et il n’était pas dépourvu d’érudition. Il a même fourni quelques articles à l'Année littéraire, de Fréron.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouveaux élémens d’odontalgie, Paris, 1756, in-12.
 Traité des dépôts dans le sinus maxillaire, des fractures et des caries de l’une et de l’autre mâchoire ; suivi de réflexions et d’observations sur toutes les opérations de l’art du dentiste, Paris, 1760, in-12.
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Eugène Dezeimeris, Dictionnaire historique de la médecine ancienne et moderne, ou Précis de l'histoire générale, technologique et littéraire de la médecine, Bruxelles, Béchet jeune, 1836, p. 286-7.</t>
         </is>
